--- a/题目总结_花花酱.xlsx
+++ b/题目总结_花花酱.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leah/Documents/CS/Jupyter/算法/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leah/Documents/CS/Jupyter/Data-Structure-And-Algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E86CB3-86EB-4C45-BF9C-8D2B41047042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142B0869-FDBA-674B-AB07-D69DC6FF53AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="14440" xr2:uid="{8CC27BB2-0579-914C-A40F-0B60C0D5D10B}"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="14440" activeTab="2" xr2:uid="{8CC27BB2-0579-914C-A40F-0B60C0D5D10B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree_Li" sheetId="2" r:id="rId1"/>
+    <sheet name="graph" sheetId="5" r:id="rId2"/>
+    <sheet name="binary search" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -102,6 +104,141 @@
   </si>
   <si>
     <t>★★★★</t>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+  </si>
+  <si>
+    <t>upper_bound</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>rotated / peak</t>
+  </si>
+  <si>
+    <t>Sqrt(x)</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>treat 2d as 1d</t>
+  </si>
+  <si>
+    <t>Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t>guess ans and check</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>kth + matrix</t>
+  </si>
+  <si>
+    <t>Find K-th Smallest Pair Distance</t>
+  </si>
+  <si>
+    <t>kth + two pointers</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>queue + hashtable</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>grid + connected components</t>
+  </si>
+  <si>
+    <t>Keys and Rooms</t>
+  </si>
+  <si>
+    <t>DFS, connected components</t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>topology sorting</t>
+  </si>
+  <si>
+    <t>Evaluate Division</t>
+  </si>
+  <si>
+    <t>union find</t>
+  </si>
+  <si>
+    <t>Is Graph Bipartite?</t>
+  </si>
+  <si>
+    <t>bipartition, graph coloring</t>
+  </si>
+  <si>
+    <t>Find the Town Judge</t>
+  </si>
+  <si>
+    <t>in/out degrees</t>
+  </si>
+  <si>
+    <t>Minimum Genetic Mutation</t>
+  </si>
+  <si>
+    <t>unweighted shortest path / BFS</t>
+  </si>
+  <si>
+    <t>Redundant Connection</t>
+  </si>
+  <si>
+    <t>cycle, union find</t>
+  </si>
+  <si>
+    <t>Network Delay Time</t>
+  </si>
+  <si>
+    <t>weighted shortest path</t>
+  </si>
+  <si>
+    <t>Shortest Path Visiting All Nodes</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>Reconstruct Itinerary</t>
+  </si>
+  <si>
+    <t>Eulerian path</t>
+  </si>
+  <si>
+    <t>Critical Connections in a Network</t>
+  </si>
+  <si>
+    <t>Tarjan</t>
+  </si>
+  <si>
+    <t>Find the Shortest Superstring</t>
+  </si>
+  <si>
+    <t>★★★★★</t>
+  </si>
+  <si>
+    <t>Hamiltonian path (DFS / DP)</t>
+  </si>
+  <si>
+    <t>Regions Cut By Slashes</t>
+  </si>
+  <si>
+    <t>union find / grid + CCs</t>
   </si>
 </sst>
 </file>
@@ -182,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,53 +335,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22322C8-E5D4-4644-B048-07F867A36592}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -584,285 +724,285 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="15">
+      <c r="A2" s="17">
         <v>94</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="12">
         <v>144</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="12">
         <v>145</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>429</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>589</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="6">
         <v>590</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="15"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="6">
         <v>987</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>1302</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="18">
+      <c r="A4" s="19">
         <v>100</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="14">
         <v>101</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="14">
         <v>104</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="14">
         <v>110</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="14">
         <v>111</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="7">
         <v>572</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="18"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="7">
         <v>965</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="17">
+      <c r="A6" s="13">
         <v>102</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="12">
         <v>107</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>429</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>872</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="6" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="13">
+      <c r="A7" s="10">
         <v>814</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>669</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>1325</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="17">
+      <c r="A8" s="13">
         <v>112</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="12">
         <v>113</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>437</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="20">
+      <c r="A9" s="15">
         <v>129</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="14">
         <v>257</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="17">
+      <c r="A10" s="13">
         <v>236</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>235</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="13">
+      <c r="A11" s="10">
         <v>297</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="14">
         <v>449</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>508</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="13">
+      <c r="A13" s="10">
         <v>124</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <v>543</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="7">
         <v>687</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="6" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="11">
+      <c r="A14" s="8">
         <v>968</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>337</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="12">
         <v>979</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -877,4 +1017,605 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7635F46-658E-2149-AD77-84F3730325F4}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5">
+        <v>133</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>138</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="21">
+        <v>200</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="21">
+        <v>547</v>
+      </c>
+      <c r="E3" s="5">
+        <v>695</v>
+      </c>
+      <c r="F3" s="21">
+        <v>733</v>
+      </c>
+      <c r="G3" s="5">
+        <v>827</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1162</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="21">
+        <v>841</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1202</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="21">
+        <v>207</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="21">
+        <v>210</v>
+      </c>
+      <c r="E5" s="5">
+        <v>802</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="21">
+        <v>399</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5">
+        <v>839</v>
+      </c>
+      <c r="E6" s="5">
+        <v>952</v>
+      </c>
+      <c r="F6" s="5">
+        <v>990</v>
+      </c>
+      <c r="G6" s="5">
+        <v>721</v>
+      </c>
+      <c r="H6" s="5">
+        <v>737</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5">
+        <v>785</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
+        <v>886</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1042</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5">
+        <v>997</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5">
+        <v>433</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
+        <v>815</v>
+      </c>
+      <c r="E9" s="5">
+        <v>863</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1129</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1263</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5">
+        <v>684</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5">
+        <v>685</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1319</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5">
+        <v>743</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5">
+        <v>787</v>
+      </c>
+      <c r="E11" s="5">
+        <v>882</v>
+      </c>
+      <c r="F11" s="5">
+        <v>924</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1334</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5">
+        <v>847</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5">
+        <v>864</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1298</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5">
+        <v>332</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5">
+        <v>1192</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5">
+        <v>943</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="5">
+        <v>980</v>
+      </c>
+      <c r="E15" s="5">
+        <v>996</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5">
+        <v>959</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125463B1-4412-3640-87DE-FE8FB91C126F}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5">
+        <v>704</v>
+      </c>
+      <c r="F2" s="5">
+        <v>981</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5">
+        <v>81</v>
+      </c>
+      <c r="E3" s="5">
+        <v>153</v>
+      </c>
+      <c r="F3" s="5">
+        <v>154</v>
+      </c>
+      <c r="G3" s="5">
+        <v>162</v>
+      </c>
+      <c r="H3" s="5">
+        <v>852</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5">
+        <v>69</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5">
+        <v>74</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5">
+        <v>875</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1011</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5">
+        <v>378</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5">
+        <v>668</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5">
+        <v>719</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5">
+        <v>786</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>